--- a/hardware/Bill of Materials/Vertap_v1_BOM.xlsx
+++ b/hardware/Bill of Materials/Vertap_v1_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Taim\Desktop\Vertap\hardware\Bill of Materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE48B23F-0A00-4939-94CB-753ACD13CF5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6DD962-080E-4EAB-87D7-F367B86E51EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{8E2C6143-A5CB-47F4-8983-6CF702DE789C}"/>
   </bookViews>
@@ -377,12 +377,6 @@
     <t>LED RGB DIFFUSED 6PLCC SMD</t>
   </si>
   <si>
-    <t>516-3908-1-ND</t>
-  </si>
-  <si>
-    <t>ASMB-TTF0-0A20B</t>
-  </si>
-  <si>
     <t>2057-MUSB-B5-S-RA-SMT-PP-T/RCT-ND</t>
   </si>
   <si>
@@ -429,6 +423,12 @@
   </si>
   <si>
     <t>GRAND TOTAL:</t>
+  </si>
+  <si>
+    <t>516-3909-1-ND</t>
+  </si>
+  <si>
+    <t>ASMB-TTF2-0B20B</t>
   </si>
 </sst>
 </file>
@@ -539,10 +539,10 @@
     <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -860,7 +860,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -898,10 +898,10 @@
         <v>4</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -1008,10 +1008,10 @@
         <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G5" s="1">
         <v>7</v>
@@ -1188,20 +1188,20 @@
         <v>39</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
       </c>
       <c r="H11" s="7">
-        <v>0.95</v>
+        <v>1.06</v>
       </c>
       <c r="I11" s="7">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -1251,7 +1251,7 @@
         <v>48</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G13" s="1">
         <v>1</v>
@@ -1266,7 +1266,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>63</v>
@@ -1281,7 +1281,7 @@
         <v>49</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G14" s="1">
         <v>4</v>
@@ -1311,7 +1311,7 @@
         <v>54</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G15" s="1">
         <v>2</v>
@@ -1341,7 +1341,7 @@
         <v>58</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G16" s="1">
         <v>1</v>
@@ -1371,7 +1371,7 @@
         <v>62</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G17" s="1">
         <v>1</v>
@@ -1401,7 +1401,7 @@
         <v>66</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G18" s="1">
         <v>1</v>
@@ -1491,7 +1491,7 @@
         <v>80</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G21" s="1">
         <v>1</v>
@@ -1521,7 +1521,7 @@
         <v>84</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G22" s="1">
         <v>1</v>
@@ -1551,7 +1551,7 @@
         <v>88</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G23" s="1">
         <v>1</v>
@@ -1578,7 +1578,7 @@
         <v>94</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>95</v>
@@ -1595,13 +1595,13 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G25" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="H25" s="10"/>
-      <c r="I25" s="11">
+      <c r="G25" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="H25" s="11"/>
+      <c r="I25" s="10">
         <f>SUM(I2:I24)</f>
-        <v>41.97</v>
+        <v>42.08</v>
       </c>
     </row>
   </sheetData>
